--- a/Results/single results csv/SimplyDo/SimplyDoResults.xlsx
+++ b/Results/single results csv/SimplyDo/SimplyDoResults.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/single results csv/SimplyDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5950FEBF-7663-0B43-B7E4-AB2E475D50B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD5D3B-2306-9E4D-A619-7DA515F19497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{067CFABA-F87D-A546-A942-91C567E7B0AE}"/>
+    <workbookView xWindow="3180" yWindow="1180" windowWidth="27640" windowHeight="16940" xr2:uid="{067CFABA-F87D-A546-A942-91C567E7B0AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="SimplyDo" sheetId="1" r:id="rId1"/>
+    <sheet name="SimplyDo" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>Class</t>
   </si>
@@ -48,233 +48,407 @@
     <t>Success rate</t>
   </si>
   <si>
-    <t>Configs</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C2.AddItemC2</t>
   </si>
   <si>
-    <t>1.529s</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>21.681s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.ChangeSettingsC2</t>
   </si>
   <si>
-    <t>2.334s</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>16.052s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.CheckItemC2</t>
   </si>
   <si>
-    <t>1.079s</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>18.147s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.CreateListsC2</t>
   </si>
   <si>
-    <t>9.741s</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>20.894s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.SortItemsC2</t>
   </si>
   <si>
-    <t>1.369s</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>22.472s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.AddItemC3</t>
   </si>
   <si>
-    <t>2.011s</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>14.527s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.ChangeSettingsC3</t>
   </si>
   <si>
-    <t>5.178s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.CheckItemC3</t>
   </si>
   <si>
-    <t>2.392s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.CreateListC3</t>
   </si>
   <si>
-    <t>4.696s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.SortItemsC3</t>
   </si>
   <si>
-    <t>3.870s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.AddItemC4</t>
   </si>
   <si>
-    <t>4.439s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.ChangeSettingsC4</t>
   </si>
   <si>
-    <t>6.706s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.CheckItemC4</t>
   </si>
   <si>
-    <t>3.055s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.CreateListsC4</t>
   </si>
   <si>
-    <t>1.875s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.SortItemsC4</t>
   </si>
   <si>
-    <t>4.819s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.AddItemC5</t>
   </si>
   <si>
-    <t>2.164s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.ChangeSettingsC5</t>
   </si>
   <si>
-    <t>11.555s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.CheckItemC5</t>
   </si>
   <si>
-    <t>2.723s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.CreateListC5</t>
   </si>
   <si>
-    <t>1.972s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.SortItemsC5</t>
   </si>
   <si>
-    <t>4.058s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.AddItemC6</t>
   </si>
   <si>
-    <t>1.591s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.ChangeSettingsC6</t>
   </si>
   <si>
-    <t>2.248s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.CheckItemC6</t>
   </si>
   <si>
-    <t>1.311s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.CreateListsC6</t>
   </si>
   <si>
-    <t>7.934s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.SortItemsC6</t>
   </si>
   <si>
-    <t>1.443s</t>
-  </si>
-  <si>
-    <t>kdk.android.simplydo.Default.AddItemDefault</t>
-  </si>
-  <si>
-    <t>2.453s</t>
-  </si>
-  <si>
-    <t>kdk.android.simplydo.Default.ChangeSettingsDefault</t>
-  </si>
-  <si>
-    <t>6.745s</t>
-  </si>
-  <si>
-    <t>kdk.android.simplydo.Default.CheckItemDefault</t>
-  </si>
-  <si>
-    <t>3.464s</t>
-  </si>
-  <si>
-    <t>kdk.android.simplydo.Default.CreateListsDefault</t>
-  </si>
-  <si>
-    <t>2.712s</t>
-  </si>
-  <si>
-    <t>kdk.android.simplydo.Default.SortItemsDefault</t>
-  </si>
-  <si>
-    <t>6.307s</t>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.AddAssertC1</t>
+  </si>
+  <si>
+    <t>0.992s</t>
+  </si>
+  <si>
+    <t>30.065s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.AddItemC1</t>
+  </si>
+  <si>
+    <t>1.968s</t>
+  </si>
+  <si>
+    <t>14.815s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.ChangeSettingsC1</t>
+  </si>
+  <si>
+    <t>5.236s</t>
+  </si>
+  <si>
+    <t>28.265s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.CheckItemC1</t>
+  </si>
+  <si>
+    <t>2.323s</t>
+  </si>
+  <si>
+    <t>27.674s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.CreateListsC1</t>
+  </si>
+  <si>
+    <t>1.274s</t>
+  </si>
+  <si>
+    <t>27.030s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.DecoratorC1</t>
+  </si>
+  <si>
+    <t>4.673s</t>
+  </si>
+  <si>
+    <t>13.248s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.DeleteInactiveC1</t>
+  </si>
+  <si>
+    <t>3.261s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.ItemAssertC1</t>
+  </si>
+  <si>
+    <t>1.986s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.MultipleListC1</t>
+  </si>
+  <si>
+    <t>3.834s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C1.SortItemsC1</t>
+  </si>
+  <si>
+    <t>4.518s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C2.AddAssertC2</t>
+  </si>
+  <si>
+    <t>1.041s</t>
+  </si>
+  <si>
+    <t>0.977s</t>
+  </si>
+  <si>
+    <t>1.756s</t>
+  </si>
+  <si>
+    <t>0.921s</t>
+  </si>
+  <si>
+    <t>1.340s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C2.DecoratorC2</t>
+  </si>
+  <si>
+    <t>1.755s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C2.DeleteInactiveC2</t>
+  </si>
+  <si>
+    <t>3.325s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C2.ItemAssertC2</t>
+  </si>
+  <si>
+    <t>0.988s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C2.MultipleListC2</t>
+  </si>
+  <si>
+    <t>1.711s</t>
+  </si>
+  <si>
+    <t>1.001s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C3.AddAssertC3</t>
+  </si>
+  <si>
+    <t>0.942s</t>
+  </si>
+  <si>
+    <t>2.016s</t>
+  </si>
+  <si>
+    <t>2.510s</t>
+  </si>
+  <si>
+    <t>1.262s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C3.DecoratorC3</t>
+  </si>
+  <si>
+    <t>4.724s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C3.DeleteInactiveC3</t>
+  </si>
+  <si>
+    <t>3.431s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C3.ItemAssertC3</t>
+  </si>
+  <si>
+    <t>1.928s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C3.MultipleListC3</t>
+  </si>
+  <si>
+    <t>3.495s</t>
+  </si>
+  <si>
+    <t>3.439s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C4.AddAssertC4</t>
+  </si>
+  <si>
+    <t>0.864s</t>
+  </si>
+  <si>
+    <t>1.813s</t>
+  </si>
+  <si>
+    <t>4.312s</t>
+  </si>
+  <si>
+    <t>2.293s</t>
+  </si>
+  <si>
+    <t>1.229s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C4.DecoratorC4</t>
+  </si>
+  <si>
+    <t>4.344s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C4.DeleteInactiveC4</t>
+  </si>
+  <si>
+    <t>3.217s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C4.ItemAssertC4</t>
+  </si>
+  <si>
+    <t>1.833s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C4.MultipleListC4</t>
+  </si>
+  <si>
+    <t>3.446s</t>
+  </si>
+  <si>
+    <t>4.323s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C5.AddAssertC5</t>
+  </si>
+  <si>
+    <t>1.090s</t>
+  </si>
+  <si>
+    <t>1.816s</t>
+  </si>
+  <si>
+    <t>4.163s</t>
+  </si>
+  <si>
+    <t>2.106s</t>
+  </si>
+  <si>
+    <t>1.149s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C5.DecoratorC5</t>
+  </si>
+  <si>
+    <t>4.254s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C5.DeleteInactiveC5</t>
+  </si>
+  <si>
+    <t>3.137s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C5.ItemAssertC5</t>
+  </si>
+  <si>
+    <t>2.596s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C5.MultipleListC5</t>
+  </si>
+  <si>
+    <t>3.486s</t>
+  </si>
+  <si>
+    <t>3.233s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C6.AddAssertC6</t>
+  </si>
+  <si>
+    <t>0.923s</t>
+  </si>
+  <si>
+    <t>0.884s</t>
+  </si>
+  <si>
+    <t>1.527s</t>
+  </si>
+  <si>
+    <t>0.882s</t>
+  </si>
+  <si>
+    <t>1.137s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C6.DecoratorC6</t>
+  </si>
+  <si>
+    <t>1.496s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C6.DeleteInactiveC6</t>
+  </si>
+  <si>
+    <t>3.317s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C6.ItemAssertC6</t>
+  </si>
+  <si>
+    <t>0.982s</t>
+  </si>
+  <si>
+    <t>kdk.android.simplydo.C6.MultipleListC6</t>
+  </si>
+  <si>
+    <t>1.237s</t>
+  </si>
+  <si>
+    <t>0.863s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,34 +457,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFB60808"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -318,165 +506,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -570,7 +619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SimplyDo!$H$1</c:f>
+              <c:f>SimplyDo!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -648,7 +697,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SimplyDo!$G$2:$G$7</c:f>
+              <c:f>SimplyDo!$F$2:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -664,7 +713,7 @@
                   <c:v>C4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>C5</c:v>
+                  <c:v>C4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>C6</c:v>
@@ -674,34 +723,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SimplyDo!$H$2:$H$7</c:f>
+              <c:f>SimplyDo!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BE1-0D4F-B4C2-946536BDFD2E}"/>
+              <c16:uniqueId val="{00000000-63AE-0444-BF97-8606BD058F83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -710,7 +759,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SimplyDo!$I$1</c:f>
+              <c:f>SimplyDo!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -788,7 +837,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SimplyDo!$G$2:$G$7</c:f>
+              <c:f>SimplyDo!$F$2:$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -804,7 +853,7 @@
                   <c:v>C4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>C5</c:v>
+                  <c:v>C4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>C6</c:v>
@@ -814,34 +863,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SimplyDo!$I$2:$I$7</c:f>
+              <c:f>SimplyDo!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7BE1-0D4F-B4C2-946536BDFD2E}"/>
+              <c16:uniqueId val="{00000001-63AE-0444-BF97-8606BD058F83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1583,13 +1632,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -1599,7 +1648,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E1B15A-A595-2A43-AC42-DBBA60D0012A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632C10ED-2A64-8746-BE24-8D8B1B31B935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,104 +1676,102 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Total"/>
-      <sheetName val="DOE"/>
       <sheetName val="Counter"/>
       <sheetName val="Primary"/>
       <sheetName val="Editor"/>
       <sheetName val="ShoppingList"/>
       <sheetName val="SimplyDo"/>
-      <sheetName val="BMI-French"/>
+      <sheetName val="BMICalc"/>
       <sheetName val="Counter-French"/>
       <sheetName val="Editor-French"/>
       <sheetName val="Primary-French"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
         <row r="1">
-          <cell r="H1" t="str">
+          <cell r="G1" t="str">
             <v>Tests</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="H1" t="str">
             <v>Failures</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="G2" t="str">
+          <cell r="F2" t="str">
             <v>C1</v>
           </cell>
+          <cell r="G2">
+            <v>10</v>
+          </cell>
           <cell r="H2">
-            <v>5</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="G3" t="str">
+          <cell r="F3" t="str">
             <v>C2</v>
           </cell>
+          <cell r="G3">
+            <v>10</v>
+          </cell>
           <cell r="H3">
-            <v>5</v>
-          </cell>
-          <cell r="I3">
-            <v>4</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="G4" t="str">
+          <cell r="F4" t="str">
             <v>C3</v>
           </cell>
+          <cell r="G4">
+            <v>10</v>
+          </cell>
           <cell r="H4">
-            <v>5</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="G5" t="str">
+          <cell r="F5" t="str">
             <v>C4</v>
           </cell>
+          <cell r="G5">
+            <v>10</v>
+          </cell>
           <cell r="H5">
-            <v>5</v>
-          </cell>
-          <cell r="I5">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="G6" t="str">
-            <v>C5</v>
+          <cell r="F6" t="str">
+            <v>C4</v>
+          </cell>
+          <cell r="G6">
+            <v>10</v>
           </cell>
           <cell r="H6">
-            <v>5</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="G7" t="str">
+          <cell r="F7" t="str">
             <v>C6</v>
           </cell>
+          <cell r="G7">
+            <v>10</v>
+          </cell>
           <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>4</v>
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2026,787 +2073,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6802E3A-81F7-E349-9904-6B61C0116617}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02523150-EFBF-654D-93A8-45FDB1723FC4}">
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCellId="1" sqref="D8 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="17"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" ht="20">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="20">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="20">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="20">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="20">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="20">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="20">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="20">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f>SUM(G2:G7)</f>
+        <v>60</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="20">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="20">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="20">
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="20">
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="20">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="17">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="20">
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="9">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="20">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="17">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="20">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="20">
+      <c r="A17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="20">
+      <c r="A18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="20">
+      <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="20">
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="20">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="17">
-      <c r="A4" s="2" t="s">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="20">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="20">
+      <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="20">
+      <c r="A24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="20">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="20">
+      <c r="A26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="20">
+      <c r="A27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="20">
+      <c r="A28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9">
-        <v>5</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="20">
+      <c r="A29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="17">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="20">
+      <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="20">
+      <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="20">
+      <c r="A32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20">
+      <c r="A33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20">
+      <c r="A34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20">
+      <c r="A35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20">
+      <c r="A36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20">
+      <c r="A37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20">
+      <c r="A38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="9">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="C38" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20">
+      <c r="A39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20">
+      <c r="A40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20">
+      <c r="A41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20">
+      <c r="A42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20">
+      <c r="A43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20">
+      <c r="A44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20">
+      <c r="A45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20">
+      <c r="A46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20">
+      <c r="A47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20">
+      <c r="A48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="17">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="C48" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20">
+      <c r="A49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="C49" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20">
+      <c r="A50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20">
+      <c r="A51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20">
+      <c r="A52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="4">
         <v>1</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="17">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C52" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20">
+      <c r="A53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="15">
-        <v>5</v>
-      </c>
-      <c r="I7" s="15">
-        <v>4</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="17">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C53" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20">
+      <c r="A54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7">
+      <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8">
-        <f>SUM(H2:H7)</f>
-        <v>30</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="17">
-      <c r="A9" s="2" t="s">
+      <c r="C54" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20">
+      <c r="A55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20">
+      <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20">
+      <c r="A57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="17">
-      <c r="A10" s="2" t="s">
+      <c r="C57" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20">
+      <c r="A58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20">
+      <c r="A59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20">
+      <c r="A60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20">
+      <c r="A61" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B61" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="17">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="17">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="17">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="17">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="17">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="17">
-      <c r="A16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="17">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="17">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="17">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="17">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="17">
-      <c r="A21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="17">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="17">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="17">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="17">
-      <c r="A25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="17">
-      <c r="A26" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="17">
-      <c r="A27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="17">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="17">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="17">
-      <c r="A30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" ht="17">
-      <c r="A31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="C61" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$B$14</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$B$26</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Results/single results csv/SimplyDo/SimplyDoResults.xlsx
+++ b/Results/single results csv/SimplyDo/SimplyDoResults.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/single results csv/SimplyDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD5D3B-2306-9E4D-A619-7DA515F19497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123CFBD8-47BF-894C-BBD1-F7D66EC7E351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1180" windowWidth="27640" windowHeight="16940" xr2:uid="{067CFABA-F87D-A546-A942-91C567E7B0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="SimplyDo" sheetId="2" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
   <si>
     <t>Class</t>
   </si>
@@ -147,99 +148,54 @@
     <t>kdk.android.simplydo.C1.AddAssertC1</t>
   </si>
   <si>
-    <t>0.992s</t>
-  </si>
-  <si>
     <t>30.065s</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C1.AddItemC1</t>
   </si>
   <si>
-    <t>1.968s</t>
-  </si>
-  <si>
     <t>14.815s</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C1.ChangeSettingsC1</t>
   </si>
   <si>
-    <t>5.236s</t>
-  </si>
-  <si>
     <t>28.265s</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C1.CheckItemC1</t>
   </si>
   <si>
-    <t>2.323s</t>
-  </si>
-  <si>
     <t>27.674s</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C1.CreateListsC1</t>
   </si>
   <si>
-    <t>1.274s</t>
-  </si>
-  <si>
     <t>27.030s</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C1.DecoratorC1</t>
   </si>
   <si>
-    <t>4.673s</t>
-  </si>
-  <si>
     <t>13.248s</t>
   </si>
   <si>
     <t>kdk.android.simplydo.C1.DeleteInactiveC1</t>
   </si>
   <si>
-    <t>3.261s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C1.ItemAssertC1</t>
   </si>
   <si>
-    <t>1.986s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C1.MultipleListC1</t>
   </si>
   <si>
-    <t>3.834s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C1.SortItemsC1</t>
   </si>
   <si>
-    <t>4.518s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.AddAssertC2</t>
   </si>
   <si>
-    <t>1.041s</t>
-  </si>
-  <si>
-    <t>0.977s</t>
-  </si>
-  <si>
-    <t>1.756s</t>
-  </si>
-  <si>
-    <t>0.921s</t>
-  </si>
-  <si>
-    <t>1.340s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.DecoratorC2</t>
   </si>
   <si>
@@ -249,206 +205,266 @@
     <t>kdk.android.simplydo.C2.DeleteInactiveC2</t>
   </si>
   <si>
-    <t>3.325s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.ItemAssertC2</t>
   </si>
   <si>
-    <t>0.988s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C2.MultipleListC2</t>
   </si>
   <si>
-    <t>1.711s</t>
-  </si>
-  <si>
-    <t>1.001s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.AddAssertC3</t>
   </si>
   <si>
-    <t>0.942s</t>
-  </si>
-  <si>
-    <t>2.016s</t>
-  </si>
-  <si>
-    <t>2.510s</t>
-  </si>
-  <si>
-    <t>1.262s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.DecoratorC3</t>
   </si>
   <si>
-    <t>4.724s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.DeleteInactiveC3</t>
   </si>
   <si>
-    <t>3.431s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.ItemAssertC3</t>
   </si>
   <si>
-    <t>1.928s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C3.MultipleListC3</t>
   </si>
   <si>
-    <t>3.495s</t>
-  </si>
-  <si>
-    <t>3.439s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.AddAssertC4</t>
   </si>
   <si>
-    <t>0.864s</t>
-  </si>
-  <si>
-    <t>1.813s</t>
-  </si>
-  <si>
-    <t>4.312s</t>
-  </si>
-  <si>
-    <t>2.293s</t>
-  </si>
-  <si>
-    <t>1.229s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.DecoratorC4</t>
   </si>
   <si>
-    <t>4.344s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.DeleteInactiveC4</t>
   </si>
   <si>
-    <t>3.217s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.ItemAssertC4</t>
   </si>
   <si>
-    <t>1.833s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C4.MultipleListC4</t>
   </si>
   <si>
-    <t>3.446s</t>
-  </si>
-  <si>
-    <t>4.323s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.AddAssertC5</t>
   </si>
   <si>
-    <t>1.090s</t>
-  </si>
-  <si>
-    <t>1.816s</t>
-  </si>
-  <si>
-    <t>4.163s</t>
-  </si>
-  <si>
-    <t>2.106s</t>
-  </si>
-  <si>
-    <t>1.149s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.DecoratorC5</t>
   </si>
   <si>
-    <t>4.254s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.DeleteInactiveC5</t>
   </si>
   <si>
-    <t>3.137s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.ItemAssertC5</t>
   </si>
   <si>
-    <t>2.596s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C5.MultipleListC5</t>
   </si>
   <si>
-    <t>3.486s</t>
-  </si>
-  <si>
-    <t>3.233s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.AddAssertC6</t>
   </si>
   <si>
-    <t>0.923s</t>
-  </si>
-  <si>
-    <t>0.884s</t>
-  </si>
-  <si>
-    <t>1.527s</t>
-  </si>
-  <si>
-    <t>0.882s</t>
-  </si>
-  <si>
-    <t>1.137s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.DecoratorC6</t>
   </si>
   <si>
-    <t>1.496s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.DeleteInactiveC6</t>
   </si>
   <si>
-    <t>3.317s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.ItemAssertC6</t>
   </si>
   <si>
-    <t>0.982s</t>
-  </si>
-  <si>
     <t>kdk.android.simplydo.C6.MultipleListC6</t>
   </si>
   <si>
-    <t>1.237s</t>
-  </si>
-  <si>
-    <t>0.863s</t>
+    <t>1.443s</t>
+  </si>
+  <si>
+    <t>2.128s</t>
+  </si>
+  <si>
+    <t>5.105s</t>
+  </si>
+  <si>
+    <t>2.687s</t>
+  </si>
+  <si>
+    <t>1.592s</t>
+  </si>
+  <si>
+    <t>6.177s</t>
+  </si>
+  <si>
+    <t>3.715s</t>
+  </si>
+  <si>
+    <t>2.242s</t>
+  </si>
+  <si>
+    <t>4.130s</t>
+  </si>
+  <si>
+    <t>4.418s</t>
+  </si>
+  <si>
+    <t>3.504s</t>
+  </si>
+  <si>
+    <t>1.459s</t>
+  </si>
+  <si>
+    <t>2.079s</t>
+  </si>
+  <si>
+    <t>1.257s</t>
+  </si>
+  <si>
+    <t>1.471s</t>
+  </si>
+  <si>
+    <t>2.018s</t>
+  </si>
+  <si>
+    <t>3.624s</t>
+  </si>
+  <si>
+    <t>1.283s</t>
+  </si>
+  <si>
+    <t>2.443s</t>
+  </si>
+  <si>
+    <t>1.267s</t>
+  </si>
+  <si>
+    <t>1.438s</t>
+  </si>
+  <si>
+    <t>2.119s</t>
+  </si>
+  <si>
+    <t>5.062s</t>
+  </si>
+  <si>
+    <t>2.607s</t>
+  </si>
+  <si>
+    <t>1.510s</t>
+  </si>
+  <si>
+    <t>5.395s</t>
+  </si>
+  <si>
+    <t>3.671s</t>
+  </si>
+  <si>
+    <t>2.158s</t>
+  </si>
+  <si>
+    <t>3.753s</t>
+  </si>
+  <si>
+    <t>3.925s</t>
+  </si>
+  <si>
+    <t>1.239s</t>
+  </si>
+  <si>
+    <t>2.227s</t>
+  </si>
+  <si>
+    <t>4.682s</t>
+  </si>
+  <si>
+    <t>2.533s</t>
+  </si>
+  <si>
+    <t>1.491s</t>
+  </si>
+  <si>
+    <t>4.684s</t>
+  </si>
+  <si>
+    <t>3.616s</t>
+  </si>
+  <si>
+    <t>2.156s</t>
+  </si>
+  <si>
+    <t>3.894s</t>
+  </si>
+  <si>
+    <t>4.342s</t>
+  </si>
+  <si>
+    <t>1.066s</t>
+  </si>
+  <si>
+    <t>1.989s</t>
+  </si>
+  <si>
+    <t>4.713s</t>
+  </si>
+  <si>
+    <t>2.441s</t>
+  </si>
+  <si>
+    <t>1.439s</t>
+  </si>
+  <si>
+    <t>4.882s</t>
+  </si>
+  <si>
+    <t>3.705s</t>
+  </si>
+  <si>
+    <t>2.222s</t>
+  </si>
+  <si>
+    <t>3.992s</t>
+  </si>
+  <si>
+    <t>3.893s</t>
+  </si>
+  <si>
+    <t>1.248s</t>
+  </si>
+  <si>
+    <t>1.070s</t>
+  </si>
+  <si>
+    <t>1.579s</t>
+  </si>
+  <si>
+    <t>1.812s</t>
+  </si>
+  <si>
+    <t>3.823s</t>
+  </si>
+  <si>
+    <t>1.146s</t>
+  </si>
+  <si>
+    <t>1.683s</t>
+  </si>
+  <si>
+    <t>1.122s</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>ContentDescription TRUE</t>
+  </si>
+  <si>
+    <t>ContentDescription FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,16 +505,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -506,11 +547,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,6 +606,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +723,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SimplyDo!$G$1</c:f>
+              <c:f>SimplyDo!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -697,7 +801,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SimplyDo!$F$2:$F$7</c:f>
+              <c:f>SimplyDo!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -723,7 +827,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SimplyDo!$G$2:$G$7</c:f>
+              <c:f>SimplyDo!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -759,7 +863,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SimplyDo!$H$1</c:f>
+              <c:f>SimplyDo!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +941,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SimplyDo!$F$2:$F$7</c:f>
+              <c:f>SimplyDo!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -863,7 +967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SimplyDo!$H$2:$H$7</c:f>
+              <c:f>SimplyDo!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1064,7 +1168,2981 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Standard Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Results </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimplyDo!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>SimplyDo!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-929D-754F-A937-5A73AD418D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SimplyDo!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>SimplyDo!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-929D-754F-A937-5A73AD418D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="717948287"/>
+        <c:axId val="729896863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="717948287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729896863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729896863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717948287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Changed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Locale Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$H$2:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]BMI-French'!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0520-1F42-9CAB-20EE578A1621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$H$2:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]BMI-French'!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0520-1F42-9CAB-20EE578A1621}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="718200447"/>
+        <c:axId val="730356191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="718200447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730356191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730356191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718200447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>AVERAGE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-488C-484D-BF51-D0B7DD2BF67E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-488C-484D-BF51-D0B7DD2BF67E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SimplyDo!$E$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimplyDo!$E$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-488C-484D-BF51-D0B7DD2BF67E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>AVERAGE RESULTS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1927-2143-84F0-52EFF843DB07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1927-2143-84F0-52EFF843DB07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$E$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]BMI-French'!$E$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1927-2143-84F0-52EFF843DB07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Content Description Enabled</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0D41-C440-9C82-E1A1949ABBE5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0D41-C440-9C82-E1A1949ABBE5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$E$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]BMI-French'!$E$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D41-C440-9C82-E1A1949ABBE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Content Description Disabled</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2860-704C-8D62-C873AE8938AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2860-704C-8D62-C873AE8938AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]BMI-French'!$E$16:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]BMI-French'!$E$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2860-704C-8D62-C873AE8938AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>CONTENT DESCRIPTION ENABLED</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69DB-264D-9411-CAC03E8ECF3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69DB-264D-9411-CAC03E8ECF3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SimplyDo!$E$9:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimplyDo!$E$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-69DB-264D-9411-CAC03E8ECF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>CONTENT DESCRIPTION DISABLED</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C29B-8A48-88D8-B028CA9002E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C29B-8A48-88D8-B028CA9002E9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>SimplyDo!$E$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SimplyDo!$E$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C29B-8A48-88D8-B028CA9002E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1628,18 +4706,4126 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -1671,107 +8857,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC109BB-37B9-7640-9605-A0E3AB216A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0D1168-5198-634A-9CB5-C2A915B7014A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E44E3CA-60C0-3F4E-BB7D-198A4F02D507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D000B3-3D81-214C-BA6F-DA08D9EF647A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0CC33D-0C72-1143-9FFC-EFF520B91F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4233</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF6B04F-0098-4947-9018-F3E977B803CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187532</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BD6FCD-3768-874B-9607-F08C1511107E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3843B796-2154-9746-BFA2-DCA3D0452B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Total"/>
-      <sheetName val="Counter"/>
-      <sheetName val="Primary"/>
-      <sheetName val="Editor"/>
-      <sheetName val="ShoppingList"/>
-      <sheetName val="SimplyDo"/>
+      <sheetName val="BMI-French"/>
       <sheetName val="BMICalc"/>
-      <sheetName val="Counter-French"/>
-      <sheetName val="Editor-French"/>
-      <sheetName val="Primary-French"/>
+      <sheetName val="Dashboard"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="0">
         <row r="1">
-          <cell r="G1" t="str">
+          <cell r="E1" t="str">
+            <v>PASS</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>FAIL</v>
+          </cell>
+          <cell r="I1" t="str">
             <v>Tests</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="J1" t="str">
             <v>Failures</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="F2" t="str">
+          <cell r="E2">
+            <v>22</v>
+          </cell>
+          <cell r="F2">
+            <v>20</v>
+          </cell>
+          <cell r="H2" t="str">
             <v>C1</v>
           </cell>
-          <cell r="G2">
-            <v>10</v>
+          <cell r="I2">
+            <v>7</v>
           </cell>
-          <cell r="H2">
-            <v>1</v>
+          <cell r="J2">
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="F3" t="str">
+          <cell r="H3" t="str">
             <v>C2</v>
           </cell>
-          <cell r="G3">
-            <v>10</v>
+          <cell r="I3">
+            <v>7</v>
           </cell>
-          <cell r="H3">
-            <v>9</v>
+          <cell r="J3">
+            <v>2</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="F4" t="str">
+          <cell r="H4" t="str">
             <v>C3</v>
           </cell>
-          <cell r="G4">
-            <v>10</v>
+          <cell r="I4">
+            <v>7</v>
           </cell>
-          <cell r="H4">
+          <cell r="J4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5" t="str">
+            <v>C4</v>
+          </cell>
+          <cell r="I5">
+            <v>7</v>
+          </cell>
+          <cell r="J5">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6" t="str">
+            <v>C5</v>
+          </cell>
+          <cell r="I6">
+            <v>7</v>
+          </cell>
+          <cell r="J6">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7" t="str">
+            <v>C6</v>
+          </cell>
+          <cell r="I7">
+            <v>7</v>
+          </cell>
+          <cell r="J7">
             <v>2</v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>C4</v>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>PASS</v>
           </cell>
-          <cell r="G5">
+          <cell r="F11" t="str">
+            <v>FAIL</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>11</v>
+          </cell>
+          <cell r="F12">
             <v>10</v>
           </cell>
-          <cell r="H5">
-            <v>1</v>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>PASS</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>FAIL</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>C4</v>
+        <row r="17">
+          <cell r="E17">
+            <v>11</v>
           </cell>
-          <cell r="G6">
+          <cell r="F17">
             <v>10</v>
-          </cell>
-          <cell r="H6">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>C6</v>
-          </cell>
-          <cell r="G7">
-            <v>10</v>
-          </cell>
-          <cell r="H7">
-            <v>9</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2074,21 +9599,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02523150-EFBF-654D-93A8-45FDB1723FC4}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="D8 A1:A1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20">
+    <row r="1" spans="1:12" ht="20">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2098,26 +9623,29 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20">
+    <row r="2" spans="1:12" ht="20">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -2125,271 +9653,299 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="20">
+      <c r="A3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="20">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9">
+        <f>COUNTIF(B2:B61,B2)</f>
+        <v>36</v>
+      </c>
+      <c r="F3" s="9">
+        <f>COUNTIF(B2:B61,B14)</f>
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="20">
+      <c r="A4" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="20">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="6">
         <v>0.8</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="20">
+    <row r="5" spans="1:12" ht="20">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6">
         <v>0.9</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="20">
+    <row r="6" spans="1:12" ht="20">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6">
         <v>0.8</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="20">
+    <row r="7" spans="1:12" ht="20">
       <c r="A7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="6">
         <v>0.1</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="20">
+    <row r="8" spans="1:12" ht="20">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8">
-        <f>SUM(G2:G7)</f>
+        <v>84</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <f>SUM(H2:H7)</f>
         <v>60</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="20">
+    <row r="9" spans="1:12" ht="20">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="20">
+    <row r="10" spans="1:12" ht="20">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="13">
+        <f>COUNTIF(B2:B31,B5)</f>
+        <v>18</v>
+      </c>
+      <c r="F10" s="14">
+        <f>COUNTIF(B2:B31,B8)</f>
+        <v>12</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="20">
+    <row r="11" spans="1:12" ht="20">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="20">
+    <row r="12" spans="1:12" ht="20">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="20">
+    <row r="13" spans="1:12" ht="20">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2397,18 +9953,20 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="20">
+    <row r="14" spans="1:12" ht="20">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2416,18 +9974,23 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="20">
+    <row r="15" spans="1:12" ht="20">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2435,18 +9998,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13">
+        <f>COUNTIF(B32:B61,B32)</f>
+        <v>18</v>
+      </c>
+      <c r="F15" s="14">
+        <f>COUNTIF(B32:B61,B49)</f>
+        <v>12</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="20">
+    <row r="16" spans="1:12" ht="20">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2454,94 +10024,99 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="20">
+    <row r="17" spans="1:12" ht="20">
       <c r="A17" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="20">
+    <row r="18" spans="1:12" ht="20">
       <c r="A18" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="20">
+    <row r="19" spans="1:12" ht="20">
       <c r="A19" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="20">
+    <row r="20" spans="1:12" ht="20">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="20">
+    <row r="21" spans="1:12" ht="20">
       <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
@@ -2549,37 +10124,39 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="20">
+    <row r="22" spans="1:12" ht="20">
       <c r="A22" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="20">
+    <row r="23" spans="1:12" ht="20">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
@@ -2587,18 +10164,19 @@
         <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="20">
+    <row r="24" spans="1:12" ht="20">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -2606,18 +10184,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="20">
+    <row r="25" spans="1:12" ht="20">
       <c r="A25" s="7" t="s">
         <v>17</v>
       </c>
@@ -2625,18 +10204,19 @@
         <v>0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="20">
+    <row r="26" spans="1:12" ht="20">
       <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
@@ -2644,94 +10224,99 @@
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="20">
+    <row r="27" spans="1:12" ht="20">
       <c r="A27" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="20">
+    <row r="28" spans="1:12" ht="20">
       <c r="A28" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="20">
+    <row r="29" spans="1:12" ht="20">
       <c r="A29" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="20">
+    <row r="30" spans="1:12" ht="20">
       <c r="A30" s="7" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="20">
+    <row r="31" spans="1:12" ht="20">
       <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
@@ -2739,29 +10324,33 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="20">
+    <row r="32" spans="1:12" ht="20">
       <c r="A32" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:3" ht="20">
+    <row r="33" spans="1:6" ht="20">
       <c r="A33" s="7" t="s">
         <v>20</v>
       </c>
@@ -2769,10 +10358,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:3" ht="20">
+    <row r="34" spans="1:6" ht="20">
       <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
@@ -2780,10 +10372,13 @@
         <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:3" ht="20">
+    <row r="35" spans="1:6" ht="20">
       <c r="A35" s="7" t="s">
         <v>22</v>
       </c>
@@ -2791,10 +10386,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:3" ht="20">
+    <row r="36" spans="1:6" ht="20">
       <c r="A36" s="7" t="s">
         <v>23</v>
       </c>
@@ -2802,54 +10400,69 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:3" ht="20">
+    <row r="37" spans="1:6" ht="20">
       <c r="A37" s="7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:3" ht="20">
+    <row r="38" spans="1:6" ht="20">
       <c r="A38" s="7" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="20">
+    <row r="39" spans="1:6" ht="20">
       <c r="A39" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:3" ht="20">
+    <row r="40" spans="1:6" ht="20">
       <c r="A40" s="7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:3" ht="20">
+    <row r="41" spans="1:6" ht="20">
       <c r="A41" s="7" t="s">
         <v>24</v>
       </c>
@@ -2857,21 +10470,27 @@
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:3" ht="20">
+    <row r="42" spans="1:6" ht="20">
       <c r="A42" s="7" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:3" ht="20">
+    <row r="43" spans="1:6" ht="20">
       <c r="A43" s="7" t="s">
         <v>25</v>
       </c>
@@ -2879,10 +10498,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:3" ht="20">
+    <row r="44" spans="1:6" ht="20">
       <c r="A44" s="7" t="s">
         <v>26</v>
       </c>
@@ -2890,10 +10512,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:3" ht="20">
+    <row r="45" spans="1:6" ht="20">
       <c r="A45" s="7" t="s">
         <v>27</v>
       </c>
@@ -2901,10 +10526,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="20">
+    <row r="46" spans="1:6" ht="20">
       <c r="A46" s="7" t="s">
         <v>28</v>
       </c>
@@ -2912,54 +10540,69 @@
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:3" ht="20">
+    <row r="47" spans="1:6" ht="20">
       <c r="A47" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:3" ht="20">
+    <row r="48" spans="1:6" ht="20">
       <c r="A48" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="20">
+    <row r="49" spans="1:6" ht="20">
       <c r="A49" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:3" ht="20">
+    <row r="50" spans="1:6" ht="20">
       <c r="A50" s="7" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:3" ht="20">
+    <row r="51" spans="1:6" ht="20">
       <c r="A51" s="7" t="s">
         <v>29</v>
       </c>
@@ -2967,21 +10610,27 @@
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:3" ht="20">
+    <row r="52" spans="1:6" ht="20">
       <c r="A52" s="7" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:3" ht="20">
+    <row r="53" spans="1:6" ht="20">
       <c r="A53" s="7" t="s">
         <v>30</v>
       </c>
@@ -2989,10 +10638,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="20">
+    <row r="54" spans="1:6" ht="20">
       <c r="A54" s="7" t="s">
         <v>31</v>
       </c>
@@ -3000,10 +10652,13 @@
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="20">
+    <row r="55" spans="1:6" ht="20">
       <c r="A55" s="7" t="s">
         <v>32</v>
       </c>
@@ -3011,10 +10666,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:3" ht="20">
+    <row r="56" spans="1:6" ht="20">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -3022,45 +10680,57 @@
         <v>0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:3" ht="20">
+    <row r="57" spans="1:6" ht="20">
       <c r="A57" s="7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:3" ht="20">
+    <row r="58" spans="1:6" ht="20">
       <c r="A58" s="7" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:3" ht="20">
+    <row r="59" spans="1:6" ht="20">
       <c r="A59" s="7" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:3" ht="20">
+    <row r="60" spans="1:6" ht="20">
       <c r="A60" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -3068,8 +10738,11 @@
       <c r="C60" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:3" ht="20">
+    <row r="61" spans="1:6" ht="20">
       <c r="A61" s="7" t="s">
         <v>34</v>
       </c>
@@ -3079,9 +10752,28 @@
       <c r="C61" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E60A83-F701-4E49-8F9B-7CDC32784E2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>